--- a/ert/input/distributions/design_input_ahm.xlsx
+++ b/ert/input/distributions/design_input_ahm.xlsx
@@ -467,7 +467,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">orm (mean, max)
+          <t xml:space="preserve">orm (min, max)
 </t>
         </r>
         <r>
@@ -1376,9 +1376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>154080</xdr:colOff>
+      <xdr:colOff>153720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1388,7 +1388,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8118720" cy="7604640"/>
+          <a:ext cx="8124840" cy="7604280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,9 +1421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>154080</xdr:colOff>
+      <xdr:colOff>153720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1433,7 +1433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8118720" cy="7604640"/>
+          <a:ext cx="8124840" cy="7604280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1466,9 +1466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>154080</xdr:colOff>
+      <xdr:colOff>153720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1478,7 +1478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8118720" cy="7604640"/>
+          <a:ext cx="8124840" cy="7604280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1516,9 +1516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4294080</xdr:colOff>
+      <xdr:colOff>4293720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1528,7 +1528,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932880" cy="884880"/>
+          <a:ext cx="6932520" cy="884520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1561,9 +1561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4294080</xdr:colOff>
+      <xdr:colOff>4293720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1573,7 +1573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932880" cy="884880"/>
+          <a:ext cx="6932520" cy="884520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1606,9 +1606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4294080</xdr:colOff>
+      <xdr:colOff>4293720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1618,7 +1618,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932880" cy="884880"/>
+          <a:ext cx="6932520" cy="884520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1651,9 +1651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4294080</xdr:colOff>
+      <xdr:colOff>4293720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1663,7 +1663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932880" cy="884880"/>
+          <a:ext cx="6932520" cy="884520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,9 +1696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4294080</xdr:colOff>
+      <xdr:colOff>4293720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1708,7 +1708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932880" cy="884880"/>
+          <a:ext cx="6932520" cy="884520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1741,9 +1741,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4294080</xdr:colOff>
+      <xdr:colOff>4293720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1753,7 +1753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932880" cy="884880"/>
+          <a:ext cx="6932520" cy="884520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1786,9 +1786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4294080</xdr:colOff>
+      <xdr:colOff>4293720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1798,7 +1798,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932880" cy="884880"/>
+          <a:ext cx="6932520" cy="884520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,9 +1831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4294080</xdr:colOff>
+      <xdr:colOff>4293720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1843,7 +1843,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932880" cy="884880"/>
+          <a:ext cx="6932520" cy="884520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1876,9 +1876,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4294080</xdr:colOff>
+      <xdr:colOff>4293720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1888,7 +1888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932880" cy="884880"/>
+          <a:ext cx="6932520" cy="884520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,9 +1921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4294080</xdr:colOff>
+      <xdr:colOff>4293720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1933,7 +1933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932880" cy="884880"/>
+          <a:ext cx="6932520" cy="884520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1966,9 +1966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4294080</xdr:colOff>
+      <xdr:colOff>4293720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1978,7 +1978,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932880" cy="884880"/>
+          <a:ext cx="6932520" cy="884520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2016,7 +2016,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
@@ -2083,10 +2083,10 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.44"/>
@@ -2790,7 +2790,7 @@
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.22"/>
@@ -3156,7 +3156,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.81"/>
   </cols>
@@ -4536,7 +4536,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/ert/input/distributions/design_input_ahm.xlsx
+++ b/ert/input/distributions/design_input_ahm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" state="visible" r:id="rId2"/>
@@ -731,7 +731,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="79">
   <si>
     <t xml:space="preserve">designtype</t>
   </si>
@@ -932,33 +932,6 @@
   </si>
   <si>
     <t xml:space="preserve">default_values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facies_aps_therys_v2_APS_1_0_GF_GRF1_RESIDUAL_MAINRANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facies_aps_therys_v2_APS_1_0_GF_GRF1_RESIDUAL_PERPRANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facies_aps_therys_v2_APS_1_0_GF_GRF1_RESIDUAL_VERTRANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facies_aps_therys_v2_APS_1_0_GF_GRF2_RESIDUAL_MAINRANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facies_aps_therys_v2_APS_1_0_GF_GRF2_RESIDUAL_PERPRANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facies_aps_therys_v2_APS_1_0_GF_GRF2_RESIDUAL_VERTRANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facies_aps_therys_v2_APS_1_0_GF_GRF3_RESIDUAL_MAINRANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facies_aps_therys_v2_APS_1_0_GF_GRF3_RESIDUAL_PERPRANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facies_aps_therys_v2_APS_1_0_GF_GRF3_RESIDUAL_VERTRANGE</t>
   </si>
   <si>
     <t xml:space="preserve">This file is an example for configuration of design matrix for one-by-one sensitivities</t>
@@ -1191,7 +1164,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1288,6 +1261,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1376,9 +1357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>153720</xdr:colOff>
+      <xdr:colOff>153360</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1388,7 +1369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8124840" cy="7604280"/>
+          <a:ext cx="8130600" cy="7603920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,9 +1402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>153720</xdr:colOff>
+      <xdr:colOff>153360</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1433,7 +1414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8124840" cy="7604280"/>
+          <a:ext cx="8130600" cy="7603920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1466,9 +1447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>153720</xdr:colOff>
+      <xdr:colOff>153360</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1478,7 +1459,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8124840" cy="7604280"/>
+          <a:ext cx="8130600" cy="7603920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1516,9 +1497,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4293720</xdr:colOff>
+      <xdr:colOff>4293360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1528,7 +1509,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932520" cy="884520"/>
+          <a:ext cx="6932160" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1561,9 +1542,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4293720</xdr:colOff>
+      <xdr:colOff>4293360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1573,7 +1554,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932520" cy="884520"/>
+          <a:ext cx="6932160" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1606,9 +1587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4293720</xdr:colOff>
+      <xdr:colOff>4293360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1618,7 +1599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932520" cy="884520"/>
+          <a:ext cx="6932160" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1651,9 +1632,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4293720</xdr:colOff>
+      <xdr:colOff>4293360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1663,7 +1644,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932520" cy="884520"/>
+          <a:ext cx="6932160" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,9 +1677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4293720</xdr:colOff>
+      <xdr:colOff>4293360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1708,7 +1689,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932520" cy="884520"/>
+          <a:ext cx="6932160" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1741,9 +1722,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4293720</xdr:colOff>
+      <xdr:colOff>4293360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1753,7 +1734,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932520" cy="884520"/>
+          <a:ext cx="6932160" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1786,9 +1767,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4293720</xdr:colOff>
+      <xdr:colOff>4293360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1798,7 +1779,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932520" cy="884520"/>
+          <a:ext cx="6932160" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,9 +1812,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4293720</xdr:colOff>
+      <xdr:colOff>4293360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1843,7 +1824,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932520" cy="884520"/>
+          <a:ext cx="6932160" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1876,9 +1857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4293720</xdr:colOff>
+      <xdr:colOff>4293360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1888,7 +1869,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932520" cy="884520"/>
+          <a:ext cx="6932160" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,9 +1902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4293720</xdr:colOff>
+      <xdr:colOff>4293360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1933,7 +1914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932520" cy="884520"/>
+          <a:ext cx="6932160" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1966,9 +1947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4293720</xdr:colOff>
+      <xdr:colOff>4293360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1978,7 +1959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6932520" cy="884520"/>
+          <a:ext cx="6932160" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2013,10 +1994,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="B1:AB1 B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
@@ -2082,11 +2063,11 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="B1:AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.44"/>
@@ -2787,10 +2768,10 @@
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="1" sqref="B1:AB1 A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.22"/>
@@ -3150,99 +3131,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB1048576"/>
+  <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.81"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" customFormat="false" ht="246.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="0" t="s">
+      <c r="K1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="24" t="s">
         <v>64</v>
       </c>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -4533,61 +4518,61 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="B1:AB1 D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
